--- a/VT_Model_DMD_V01.xlsx
+++ b/VT_Model_DMD_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F6BDA9-92F3-47FA-AADE-ED82EFEAC6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B5B662-D701-40CE-8CAD-DA79BE3183B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5922,8 +5922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6092,18 +6092,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6251,6 +6251,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6262,14 +6270,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/VT_Model_DMD_V01.xlsx
+++ b/VT_Model_DMD_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B5B662-D701-40CE-8CAD-DA79BE3183B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C412ADA9-494A-482B-9257-65C644F6E272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -360,37 +360,11 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Maciej Raczyński</author>
     <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">Dozwolone Zbiory Procesów
-ELE (Elektrownia)
-CHP (Elektrociepłownia)
-STGTSS (Elektrownia Szczyt-Pompowa)
-PRE (Dowolny Proces/Technologia)
-DMD (Proces Popytu)
-IMP (Import)
-EXP (Eksport)
-MIN (Proces Wydobycia/Kopalnia)
-RNW (Technologia Odnawialna*)
-HPL (Ciepłownia)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -483,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -510,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -573,6 +547,239 @@
         </r>
       </text>
     </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{F4B53DF6-885F-4626-ACE2-D1AC452333C0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sets declarations are </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NO-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>inherited. 
+Allowed Process Sets</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ELE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Thermal Electric Power Plant)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CHP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Combined Heat and Power)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>STGTSS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Pump Storage)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+PRE </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Genric Process/Technology)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DMD</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Demand Device)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+IMP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Import)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+EXP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Export)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+MIN</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Mining Process)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+RNW</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Renewable Technology)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">HPL </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Heating Plant)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -602,7 +809,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -655,25 +862,10 @@
     <t>Electricity Indicator (for CHPs)</t>
   </si>
   <si>
-    <t>NRG</t>
-  </si>
-  <si>
-    <t>ELC_GRID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Electricity</t>
-  </si>
-  <si>
     <t>PJ</t>
   </si>
   <si>
     <t>DAYNITE</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>DEM</t>
   </si>
   <si>
     <t>Electricity - Final Energy</t>
@@ -736,16 +928,10 @@
     <t>Vintage Tracking</t>
   </si>
   <si>
-    <t>DMD</t>
-  </si>
-  <si>
     <t>Electricity - Final Energy Demand</t>
   </si>
   <si>
     <t>PJa</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>Final Energy Consumption Technologies</t>
@@ -802,16 +988,46 @@
     <t>Visualisation Platform | ENTSOs TYNDP 2024 Scenarios</t>
   </si>
   <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>ELC_FIN</t>
+  </si>
+  <si>
     <t>ELC_GRID_RES</t>
+  </si>
+  <si>
+    <t>ELC_GRID</t>
+  </si>
+  <si>
+    <t>NRG</t>
+  </si>
+  <si>
+    <t>DEM</t>
   </si>
   <si>
     <t>ELC_FIN_DEM</t>
   </si>
   <si>
-    <t>ELC_FIN</t>
+    <t>DMD</t>
   </si>
   <si>
-    <t>NL</t>
+    <t xml:space="preserve">Electricity grid RES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity grid non-RES </t>
+  </si>
+  <si>
+    <t>Supportive calculations below:</t>
+  </si>
+  <si>
+    <t>Legend:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENTSO data points</t>
   </si>
 </sst>
 </file>
@@ -842,9 +1058,9 @@
     <numFmt numFmtId="182" formatCode="yyyy"/>
     <numFmt numFmtId="183" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
     <numFmt numFmtId="184" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="185" formatCode="0.000"/>
+    <numFmt numFmtId="186" formatCode="0.0"/>
   </numFmts>
-  <fonts count="114">
+  <fonts count="112">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1480,20 +1696,6 @@
       <charset val="238"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1587,7 +1789,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1820,19 +2022,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2070,8 +2278,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2406,7 +2616,7 @@
     <xf numFmtId="0" fontId="57" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="102" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="100" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2635,7 +2845,7 @@
     <xf numFmtId="0" fontId="60" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="60" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="103" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="101" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2794,18 +3004,18 @@
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2972,7 +3182,7 @@
     <xf numFmtId="0" fontId="66" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="66" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="106" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="104" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3032,37 +3242,37 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
@@ -3080,18 +3290,18 @@
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
@@ -3170,7 +3380,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3179,7 +3389,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3308,24 +3518,24 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -3334,37 +3544,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="16" applyNumberFormat="0" applyProtection="0">
@@ -3589,7 +3799,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
@@ -3602,14 +3812,14 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3629,13 +3839,7 @@
     <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="184" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="184" fontId="43" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="44" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -3643,8 +3847,6 @@
     <xf numFmtId="184" fontId="3" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="5" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="4" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3652,29 +3854,58 @@
     <xf numFmtId="184" fontId="5" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="18" xfId="791" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="99" fillId="44" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="43" fillId="44" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="1244"/>
-    <xf numFmtId="2" fontId="99" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="184" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="1244"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="184" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="43" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="5" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="19" xfId="791" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="43" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="43" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="186" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1263">
@@ -4955,20 +5186,932 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Forecast</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DEMAND!$C$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DEMAND!$C$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>109.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122.81073059360824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193.89840182648368</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>264.98607305936093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300.52990867580047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-633D-4D5F-AA43-F82B5531D4F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1579598447"/>
+        <c:axId val="1579601327"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1579598447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1579601327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1579601327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1579598447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>65835</xdr:rowOff>
+      <xdr:colOff>19707</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>125297</xdr:rowOff>
+      <xdr:colOff>530155</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>92452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4991,14 +6134,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2643188"/>
-          <a:ext cx="6538632" cy="3763005"/>
+          <a:off x="19707" y="3488267"/>
+          <a:ext cx="6540758" cy="3764358"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>262758</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>518948</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>113643</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D08EC66-A235-E2F7-A46F-106D87A9EB31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5071,7 +6250,13 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>^FI_ST: TCH, PRC</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5"/>
@@ -5482,17 +6667,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:I21"/>
+  <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -5503,19 +6688,19 @@
     <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:10" ht="18">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="2:9" ht="12.75" customHeight="1">
+    <row r="3" spans="2:10" ht="12.75" customHeight="1">
       <c r="B3" s="11"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -5525,7 +6710,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="2:9" ht="17.649999999999999" customHeight="1">
+    <row r="4" spans="2:10" ht="17.649999999999999" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
@@ -5537,110 +6722,142 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="47.25" customHeight="1">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B7" s="35" t="s">
+    <row r="7" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B7" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B9" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="14"/>
+      <c r="E9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="16"/>
+    <row r="10" spans="2:10">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
+    <row r="11" spans="2:10">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="1"/>
+    <row r="13" spans="2:10">
+      <c r="B13" s="1"/>
     </row>
-    <row r="21" ht="13.9" customHeight="1"/>
+    <row r="22" ht="13.9" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5654,8 +6871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5671,11 +6888,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -5696,7 +6913,7 @@
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1">
       <c r="B4" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
@@ -5708,89 +6925,87 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="H5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="I5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="J5" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="38.25">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="H6" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="J6" s="33" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="B7" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="C7" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5802,8 +7017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView zoomScale="133" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5818,8 +7033,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18">
-      <c r="B2" s="22" t="s">
-        <v>48</v>
+      <c r="B2" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="9"/>
       <c r="E2" s="3"/>
@@ -5831,86 +7046,104 @@
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1">
       <c r="E4" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>54</v>
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="31.9" customHeight="1">
-      <c r="B6" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>59</v>
+      <c r="B6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B7" s="13" t="str">
+      <c r="B7" s="27" t="str">
         <f>SEC_Processes!D7</f>
         <v>ELC_FIN_DEM</v>
       </c>
-      <c r="C7" s="13" t="str">
+      <c r="C7" s="27" t="str">
         <f>SEC_Processes!E7</f>
         <v>Electricity - Final Energy Demand</v>
       </c>
-      <c r="F7" s="20">
+      <c r="D7" s="29"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="34">
         <v>1</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="D8" s="13" t="str">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="30" t="str">
         <f>SEC_Comm!C7</f>
-        <v>ELC_GRID</v>
-      </c>
+        <v>ELC_GRID_RES</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="D9" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="29" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELC_GRID</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="E10" s="13" t="str">
-        <f>SEC_Comm!C8</f>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="str">
+        <f>SEC_Comm!C9</f>
         <v>ELC_FIN</v>
       </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="D16" s="18"/>
+      <c r="D16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5920,10 +7153,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:M26"/>
+  <dimension ref="B1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5932,153 +7165,214 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="C1" s="34"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="3" spans="2:13" ht="18">
-      <c r="B3" s="22" t="s">
-        <v>60</v>
+      <c r="B3" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="21">
         <v>2023</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="21">
         <v>2025</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="21">
         <v>2030</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="21">
         <v>2035</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="21">
         <v>2040</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="21">
         <v>2045</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="21">
         <v>2050</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="36.75" customHeight="1">
-      <c r="B7" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="B7" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B8" s="15" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELC_FIN</v>
-      </c>
-      <c r="C8" s="33">
-        <f>125*3.6</f>
-        <v>450</v>
-      </c>
-      <c r="D8" s="33">
-        <f>135*3.6</f>
-        <v>486</v>
-      </c>
-      <c r="E8" s="33">
-        <f>157*3.6</f>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="41">
+        <f>C13*3.6</f>
+        <v>393.80400000000003</v>
+      </c>
+      <c r="D8" s="41">
+        <f>D13*3.6</f>
+        <v>442.11863013698968</v>
+      </c>
+      <c r="E8" s="41">
+        <f>E13*3.6</f>
         <v>565.20000000000005</v>
       </c>
-      <c r="F8" s="33">
-        <f>180*3.6</f>
-        <v>648</v>
-      </c>
-      <c r="G8" s="33">
-        <f>230*3.6</f>
+      <c r="F8" s="41">
+        <f>F13*3.6</f>
+        <v>698.03424657534129</v>
+      </c>
+      <c r="G8" s="41">
+        <f>G13*3.6</f>
         <v>828</v>
       </c>
-      <c r="H8" s="33">
-        <f>260*3.6</f>
-        <v>936</v>
-      </c>
-      <c r="I8" s="33">
-        <f>300*3.6</f>
-        <v>1080</v>
+      <c r="H8" s="41">
+        <f>H13*3.6</f>
+        <v>953.94986301369943</v>
+      </c>
+      <c r="I8" s="41">
+        <f>I13*3.6</f>
+        <v>1081.9076712328817</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B9" s="17"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:13" ht="15.75" customHeight="1">
-      <c r="M10" s="1"/>
+      <c r="C10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" customHeight="1"/>
-    <row r="12" spans="2:13">
-      <c r="B12" s="37">
-        <f>C8/3.6</f>
-        <v>125</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="I12">
-        <f>I8/3.6</f>
-        <v>300</v>
+    <row r="11" spans="2:13" ht="15.75" customHeight="1">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="2:13" ht="15.75" customHeight="1">
+      <c r="C12" s="21">
+        <v>2023</v>
+      </c>
+      <c r="D12" s="21">
+        <v>2025</v>
+      </c>
+      <c r="E12" s="21">
+        <v>2030</v>
+      </c>
+      <c r="F12" s="21">
+        <v>2035</v>
+      </c>
+      <c r="G12" s="21">
+        <v>2040</v>
+      </c>
+      <c r="H12" s="21">
+        <v>2045</v>
+      </c>
+      <c r="I12" s="21">
+        <v>2050</v>
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="28"/>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="38">
+        <v>109.39</v>
+      </c>
+      <c r="D13" s="39">
+        <f>_xlfn.FORECAST.LINEAR(2025,{109.39;157;230}, {2023;2030;2040})</f>
+        <v>122.81073059360824</v>
+      </c>
+      <c r="E13" s="38">
+        <v>157</v>
+      </c>
+      <c r="F13" s="39">
+        <f>_xlfn.FORECAST.LINEAR(2035,{109.39;157;230}, {2023;2030;2040})</f>
+        <v>193.89840182648368</v>
+      </c>
+      <c r="G13" s="38">
+        <v>230</v>
+      </c>
+      <c r="H13" s="39">
+        <f>_xlfn.FORECAST.LINEAR(2045,{109.39;157;230}, {2023;2030;2040})</f>
+        <v>264.98607305936093</v>
+      </c>
+      <c r="I13" s="39">
+        <f>_xlfn.FORECAST.LINEAR(2050,{109.39;157;230}, {2023;2030;2040})</f>
+        <v>300.52990867580047</v>
+      </c>
     </row>
-    <row r="14" spans="2:13">
-      <c r="C14" s="28"/>
+    <row r="15" spans="2:13">
+      <c r="C15" s="37" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="15" spans="2:13" ht="26.25" customHeight="1"/>
-    <row r="16" spans="2:13" ht="26.25" customHeight="1"/>
-    <row r="17" spans="3:12" ht="25.5" customHeight="1">
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+    <row r="16" spans="2:13" ht="13.5" customHeight="1">
+      <c r="C16" s="26"/>
+      <c r="D16" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="18" spans="3:12" ht="26.25" customHeight="1">
-      <c r="C18" s="1"/>
+    <row r="17" spans="3:12" ht="26.25" customHeight="1"/>
+    <row r="18" spans="3:12" ht="25.5" customHeight="1">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="3:12" ht="26.25" customHeight="1"/>
-    <row r="20" spans="3:12" ht="25.5" customHeight="1"/>
-    <row r="26" spans="3:12" ht="16.5" customHeight="1"/>
+    <row r="19" spans="3:12" ht="26.25" customHeight="1">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:12" ht="26.25" customHeight="1"/>
+    <row r="21" spans="3:12" ht="25.5" customHeight="1"/>
+    <row r="27" spans="3:12" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B12:C12"/>
+  <mergeCells count="1">
     <mergeCell ref="C7:I7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6092,21 +7386,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -6250,10 +7529,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{476A49FA-039E-4D8A-A3EF-E37AC40E343E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6275,19 +7579,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{476A49FA-039E-4D8A-A3EF-E37AC40E343E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_Model_DMD_V01.xlsx
+++ b/VT_Model_DMD_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Model_MSc_SELECT\Model_MSc_SELECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C412ADA9-494A-482B-9257-65C644F6E272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6E06BB-874A-414A-B89C-A9BB35309855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -809,7 +809,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1029,6 +1029,9 @@
   <si>
     <t xml:space="preserve"> ENTSO data points</t>
   </si>
+  <si>
+    <t>FX</t>
+  </si>
 </sst>
 </file>
 
@@ -1058,7 +1061,7 @@
     <numFmt numFmtId="182" formatCode="yyyy"/>
     <numFmt numFmtId="183" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
     <numFmt numFmtId="184" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="186" formatCode="0.0"/>
+    <numFmt numFmtId="185" formatCode="0.0"/>
   </numFmts>
   <fonts count="112">
     <font>
@@ -3885,27 +3888,27 @@
     <xf numFmtId="0" fontId="5" fillId="39" borderId="19" xfId="791" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="43" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="43" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="43" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="43" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="185" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="184" fontId="5" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="186" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1263">
@@ -6669,8 +6672,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6828,7 +6831,9 @@
       <c r="E9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="27" t="s">
+        <v>73</v>
+      </c>
       <c r="G9" s="27" t="s">
         <v>18</v>
       </c>
@@ -6871,7 +6876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -7217,46 +7222,46 @@
       <c r="B7" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1">
       <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="41">
-        <f>C13*3.6</f>
+      <c r="C8" s="40">
+        <f t="shared" ref="C8:I8" si="0">C13*3.6</f>
         <v>393.80400000000003</v>
       </c>
-      <c r="D8" s="41">
-        <f>D13*3.6</f>
+      <c r="D8" s="40">
+        <f t="shared" si="0"/>
         <v>442.11863013698968</v>
       </c>
-      <c r="E8" s="41">
-        <f>E13*3.6</f>
+      <c r="E8" s="40">
+        <f t="shared" si="0"/>
         <v>565.20000000000005</v>
       </c>
-      <c r="F8" s="41">
-        <f>F13*3.6</f>
+      <c r="F8" s="40">
+        <f t="shared" si="0"/>
         <v>698.03424657534129</v>
       </c>
-      <c r="G8" s="41">
-        <f>G13*3.6</f>
+      <c r="G8" s="40">
+        <f t="shared" si="0"/>
         <v>828</v>
       </c>
-      <c r="H8" s="41">
-        <f>H13*3.6</f>
+      <c r="H8" s="40">
+        <f t="shared" si="0"/>
         <v>953.94986301369943</v>
       </c>
-      <c r="I8" s="41">
-        <f>I13*3.6</f>
+      <c r="I8" s="40">
+        <f t="shared" si="0"/>
         <v>1081.9076712328817</v>
       </c>
       <c r="L8" t="s">
@@ -7276,7 +7281,7 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:13" ht="15.75" customHeight="1">
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="25"/>
@@ -7323,34 +7328,34 @@
       <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="37">
         <v>109.39</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="38">
         <f>_xlfn.FORECAST.LINEAR(2025,{109.39;157;230}, {2023;2030;2040})</f>
         <v>122.81073059360824</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="37">
         <v>157</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="38">
         <f>_xlfn.FORECAST.LINEAR(2035,{109.39;157;230}, {2023;2030;2040})</f>
         <v>193.89840182648368</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="37">
         <v>230</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="38">
         <f>_xlfn.FORECAST.LINEAR(2045,{109.39;157;230}, {2023;2030;2040})</f>
         <v>264.98607305936093</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="38">
         <f>_xlfn.FORECAST.LINEAR(2050,{109.39;157;230}, {2023;2030;2040})</f>
         <v>300.52990867580047</v>
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7386,6 +7391,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -7529,35 +7549,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{476A49FA-039E-4D8A-A3EF-E37AC40E343E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7579,9 +7574,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{476A49FA-039E-4D8A-A3EF-E37AC40E343E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>